--- a/roster.xlsx
+++ b/roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">WTM Roster</t>
   </si>
@@ -31,10 +31,22 @@
     <t xml:space="preserve">Smith, John</t>
   </si>
   <si>
+    <t xml:space="preserve">Everything to the right of the store number is ignored</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smith, Jane</t>
   </si>
   <si>
+    <t xml:space="preserve">You can put whatever you want here (for easy copy and paste from HR)</t>
+  </si>
+  <si>
     <t xml:space="preserve">etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or nothing at all! There is no limit to the number of people you can put here, it just</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be a little bit slow</t>
   </si>
 </sst>
 </file>
@@ -110,8 +122,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,66 +320,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>12345</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>67890</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
